--- a/branches/main/ValueSet-location-status-vs.xlsx
+++ b/branches/main/ValueSet-location-status-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-19T07:11:06+00:00</t>
+    <t>2022-09-30T12:26:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/ValueSet-location-status-vs.xlsx
+++ b/branches/main/ValueSet-location-status-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-30T12:26:31+00:00</t>
+    <t>2022-10-12T01:19:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/ValueSet-location-status-vs.xlsx
+++ b/branches/main/ValueSet-location-status-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-12T01:19:25+00:00</t>
+    <t>2022-12-30T12:43:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/ValueSet-location-status-vs.xlsx
+++ b/branches/main/ValueSet-location-status-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-30T12:43:23+00:00</t>
+    <t>2023-03-16T10:02:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/ValueSet-location-status-vs.xlsx
+++ b/branches/main/ValueSet-location-status-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T10:02:34+00:00</t>
+    <t>2023-03-16T12:56:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
